--- a/paper/Tables/Hotspot_eQTL/GenesUnderHotspots_Summary_NetworkMap.xlsx
+++ b/paper/Tables/Hotspot_eQTL/GenesUnderHotspots_Summary_NetworkMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcAt_RNAGWAS\data\GEMMA_eachAt_Bc\07_TopSNPs\BcAt_permut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcAt_RNAGWAS\paper\Tables\Hotspot_eQTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BE346-2428-41AF-810E-158BCEBC3DF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21388598-C3F8-489E-9FFA-9F1999F2D798}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenesUnderHotspots_Summary_Netw" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
   <si>
     <t>Order</t>
   </si>
@@ -398,6 +398,15 @@
   </si>
   <si>
     <t>NumGenesCol0</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>dash</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2171,19 +2180,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E874176-CBB6-4802-83EF-9D5AF4B85A86}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -3185,7 +3197,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -3215,7 +3227,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3247,7 +3259,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3289,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3303,7 +3315,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -3329,7 +3341,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3361,7 +3373,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -3393,7 +3405,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -3427,7 +3439,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -3440,23 +3452,28 @@
       <c r="D43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="K43" s="6"/>
+      <c r="L43" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="M43" s="8"/>
+      <c r="N43" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -3471,11 +3488,19 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
@@ -3487,11 +3512,16 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
@@ -3506,23 +3536,31 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="T46" t="s">
         <v>102</v>
       </c>
-      <c r="P46" t="s">
+      <c r="U46" t="s">
         <v>86</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="V46" t="s">
         <v>107</v>
       </c>
-      <c r="R46" t="s">
+      <c r="W46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
@@ -3536,24 +3574,31 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" ref="I45:I48" si="0">R26*100/C47</f>
+      <c r="M47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N47" s="3">
+        <f>R26*100/C47</f>
         <v>0</v>
       </c>
-      <c r="O47" t="s">
+      <c r="T47" t="s">
         <v>103</v>
       </c>
-      <c r="P47">
+      <c r="U47">
         <v>2</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>23</v>
       </c>
@@ -3564,23 +3609,28 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" t="s">
+      <c r="T48" t="s">
         <v>104</v>
       </c>
-      <c r="P48">
+      <c r="U48">
         <v>5</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="V48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -3594,22 +3644,29 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f t="shared" ref="H48:H52" si="1">Q28*100/C49</f>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <f>Q28*100/C49</f>
         <v>45.454545454545453</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="O49" t="s">
+      <c r="M49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="T49" t="s">
         <v>105</v>
       </c>
-      <c r="P49">
+      <c r="U49">
         <v>10</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="V49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>28</v>
       </c>
@@ -3623,22 +3680,29 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <f t="shared" si="1"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <f>Q29*100/C50</f>
         <v>34.883720930232556</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="O50" t="s">
+      <c r="M50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="T50" t="s">
         <v>106</v>
       </c>
-      <c r="P50">
-        <v>15</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="U50">
+        <v>15</v>
+      </c>
+      <c r="V50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
@@ -3652,12 +3716,19 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
         <v>100</v>
       </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
@@ -3671,15 +3742,25 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <f t="shared" si="1"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <f>Q31*100/C52</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="I52" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N52" s="3">
+        <v>15</v>
+      </c>
+      <c r="O52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>36</v>
       </c>
@@ -3693,16 +3774,23 @@
         <f>C32*100/C53</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3">
-        <f>F32*100/C53</f>
+      <c r="E53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <f t="shared" ref="H53:H61" si="0">F32*100/C53</f>
         <v>0</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>39</v>
       </c>
@@ -3713,19 +3801,28 @@
         <v>25</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:D61" si="2">C33*100/C54</f>
+        <f t="shared" ref="D54:D61" si="1">C33*100/C54</f>
         <v>60</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3">
-        <f t="shared" ref="F54:F61" si="3">F33*100/C54</f>
+      <c r="E54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>41</v>
       </c>
@@ -3736,19 +3833,28 @@
         <v>3</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3">
-        <f t="shared" si="3"/>
+      <c r="E55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>42</v>
       </c>
@@ -3759,19 +3865,28 @@
         <v>9</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3">
-        <f t="shared" si="3"/>
+      <c r="E56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
+        <f t="shared" si="0"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
@@ -3782,19 +3897,26 @@
         <v>1</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <f t="shared" si="3"/>
+      <c r="E57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -3805,22 +3927,29 @@
         <v>6</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5"/>
+      <c r="F58" s="3">
         <f>D37*100/C58</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" si="3"/>
+      <c r="G58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -3831,22 +3960,33 @@
         <v>6</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <f t="shared" si="3"/>
+      <c r="E59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="3">
         <f>I38*100/C59</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
@@ -3857,22 +3997,33 @@
         <v>7</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3">
-        <f t="shared" si="3"/>
+      <c r="E60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3">
+        <f t="shared" si="0"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="3">
         <f>I39*100/C60</f>
         <v>28.571428571428573</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
@@ -3883,17 +4034,26 @@
         <v>84</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <f t="shared" si="3"/>
+      <c r="E61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3">
+        <f t="shared" si="0"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:B40">
